--- a/UFM_samlet_06SEP2024_grouped.xlsx
+++ b/UFM_samlet_06SEP2024_grouped.xlsx
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>298</v>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124</v>
+        <v>24.8</v>
       </c>
       <c r="C3" t="n">
         <v>708</v>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>216</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>160</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>184</v>
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>244</v>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>158</v>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>174</v>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>158</v>
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
         <v>160</v>
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
         <v>208</v>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>146</v>
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>300</v>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>98</v>
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>62</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="C17" t="n">
         <v>1558</v>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
         <v>422</v>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
         <v>122</v>
@@ -1394,9 +1394,7 @@
           <t>Applied Chemistry</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
         <v>0</v>
       </c>
@@ -1436,7 +1434,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>124</v>
@@ -1491,7 +1489,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
         <v>142</v>
@@ -1532,7 +1530,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C23" t="n">
         <v>76</v>
@@ -1573,7 +1571,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C24" t="n">
         <v>146</v>
@@ -1616,7 +1614,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C25" t="n">
         <v>220</v>
@@ -1671,7 +1669,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C26" t="n">
         <v>802</v>
@@ -1724,7 +1722,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="C27" t="n">
         <v>3150</v>
@@ -1779,7 +1777,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>3068</v>
@@ -1834,7 +1832,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
         <v>702</v>
@@ -1875,7 +1873,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C30" t="n">
         <v>82</v>
@@ -1914,7 +1912,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="C31" t="n">
         <v>512</v>
@@ -1969,7 +1967,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C32" t="n">
         <v>106</v>
@@ -2020,7 +2018,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="C33" t="n">
         <v>1868</v>
@@ -2061,7 +2059,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
         <v>54</v>
@@ -2106,7 +2104,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C35" t="n">
         <v>324</v>
@@ -2161,7 +2159,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C36" t="n">
         <v>854</v>
@@ -2216,7 +2214,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>194</v>
+        <v>24.25</v>
       </c>
       <c r="C37" t="n">
         <v>1160</v>
@@ -2271,7 +2269,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
         <v>572</v>
@@ -2324,7 +2322,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>127</v>
+        <v>25.4</v>
       </c>
       <c r="C39" t="n">
         <v>392</v>
@@ -2369,7 +2367,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C40" t="n">
         <v>380</v>
@@ -2410,7 +2408,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
         <v>334</v>
@@ -2451,7 +2449,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="C42" t="n">
         <v>116</v>
@@ -2494,7 +2492,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="C43" t="n">
         <v>2774</v>
@@ -2588,7 +2586,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>14</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C45" t="n">
         <v>398</v>
@@ -2643,7 +2641,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C46" t="n">
         <v>370</v>
@@ -2696,7 +2694,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>38</v>
+        <v>9.5</v>
       </c>
       <c r="C47" t="n">
         <v>1036</v>
@@ -2751,7 +2749,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="C48" t="n">
         <v>383</v>
@@ -2806,7 +2804,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>102</v>
+        <v>10.2</v>
       </c>
       <c r="C49" t="n">
         <v>4032</v>
@@ -2861,7 +2859,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
         <v>84</v>
@@ -2902,7 +2900,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
         <v>426</v>
@@ -2957,7 +2955,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C52" t="n">
         <v>980</v>
@@ -3012,7 +3010,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C53" t="n">
         <v>100</v>
@@ -3054,9 +3052,7 @@
           <t>Biosolutions</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
         <v>0</v>
       </c>
@@ -3094,7 +3090,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>280</v>
@@ -3149,7 +3145,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>11</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="C56" t="n">
         <v>762</v>
@@ -3204,7 +3200,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C57" t="n">
         <v>672</v>
@@ -3298,7 +3294,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C59" t="n">
         <v>828</v>
@@ -3339,7 +3335,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C60" t="n">
         <v>40</v>
@@ -3378,7 +3374,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C61" t="n">
         <v>102</v>
@@ -3421,7 +3417,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C62" t="n">
         <v>164</v>
@@ -3464,7 +3460,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
         <v>552</v>
@@ -3505,7 +3501,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C64" t="n">
         <v>952</v>
@@ -3558,7 +3554,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C65" t="n">
         <v>860</v>
@@ -3599,7 +3595,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C66" t="n">
         <v>592</v>
@@ -3644,7 +3640,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C67" t="n">
         <v>242</v>
@@ -3697,7 +3693,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C68" t="n">
         <v>474</v>
@@ -3750,7 +3746,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C69" t="n">
         <v>142</v>
@@ -3803,7 +3799,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C70" t="n">
         <v>828</v>
@@ -3844,7 +3840,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C71" t="n">
         <v>452</v>
@@ -3885,7 +3881,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C72" t="n">
         <v>450</v>
@@ -3937,9 +3933,7 @@
           <t>Business og vandteknologi</t>
         </is>
       </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
         <v>0</v>
       </c>
@@ -3979,7 +3973,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C74" t="n">
         <v>470</v>
@@ -4020,7 +4014,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C75" t="n">
         <v>1482</v>
@@ -4075,7 +4069,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C76" t="n">
         <v>326</v>
@@ -4130,7 +4124,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C77" t="n">
         <v>388</v>
@@ -4226,7 +4220,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>53</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="C79" t="n">
         <v>476</v>
@@ -4267,7 +4261,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>199</v>
+        <v>28.42857142857143</v>
       </c>
       <c r="C80" t="n">
         <v>640</v>
@@ -4309,9 +4303,7 @@
           <t>Byggeledelse</t>
         </is>
       </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
         <v>0</v>
       </c>
@@ -4349,7 +4341,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C82" t="n">
         <v>68</v>
@@ -4400,7 +4392,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C83" t="n">
         <v>290</v>
@@ -4441,7 +4433,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C84" t="n">
         <v>612</v>
@@ -4481,9 +4473,7 @@
           <t>Byggetekniker</t>
         </is>
       </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
         <v>0</v>
       </c>
@@ -4522,9 +4512,7 @@
           <t>Byggeteknologi</t>
         </is>
       </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
         <v>0</v>
       </c>
@@ -4562,7 +4550,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C87" t="n">
         <v>336</v>
@@ -4603,7 +4591,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>204</v>
+        <v>20.4</v>
       </c>
       <c r="C88" t="n">
         <v>10264</v>
@@ -4658,7 +4646,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C89" t="n">
         <v>132</v>
@@ -4701,7 +4689,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C90" t="n">
         <v>210</v>
@@ -4744,7 +4732,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C91" t="n">
         <v>28</v>
@@ -4785,7 +4773,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C92" t="n">
         <v>234</v>
@@ -4826,7 +4814,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C93" t="n">
         <v>360</v>
@@ -4867,7 +4855,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C94" t="n">
         <v>196</v>
@@ -4910,7 +4898,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="C95" t="n">
         <v>1402</v>
@@ -4949,7 +4937,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
         <v>534</v>
@@ -5004,7 +4992,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C97" t="n">
         <v>390</v>
@@ -5059,7 +5047,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C98" t="n">
         <v>304</v>
@@ -5112,7 +5100,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
         <v>184</v>
@@ -5167,7 +5155,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C100" t="n">
         <v>476</v>
@@ -5218,7 +5206,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C101" t="n">
         <v>116</v>
@@ -5302,7 +5290,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C103" t="n">
         <v>82</v>
@@ -5343,7 +5331,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C104" t="n">
         <v>112</v>
@@ -5386,7 +5374,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>38</v>
+        <v>9.5</v>
       </c>
       <c r="C105" t="n">
         <v>386</v>
@@ -5430,9 +5418,7 @@
           <t>Computer Science (IT)</t>
         </is>
       </c>
-      <c r="B106" t="n">
-        <v>0</v>
-      </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
         <v>0</v>
       </c>
@@ -5470,7 +5456,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C107" t="n">
         <v>1442</v>
@@ -5523,7 +5509,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C108" t="n">
         <v>378</v>
@@ -5564,7 +5550,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="C109" t="n">
         <v>1576</v>
@@ -5615,7 +5601,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C110" t="n">
         <v>98</v>
@@ -5654,7 +5640,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C111" t="n">
         <v>126</v>
@@ -5705,7 +5691,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C112" t="n">
         <v>414</v>
@@ -5760,7 +5746,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C113" t="n">
         <v>192</v>
@@ -5801,7 +5787,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C114" t="n">
         <v>116</v>
@@ -5842,7 +5828,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C115" t="n">
         <v>228</v>
@@ -5882,9 +5868,7 @@
           <t>Dance and Choreography</t>
         </is>
       </c>
-      <c r="B116" t="n">
-        <v>0</v>
-      </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
         <v>0</v>
       </c>
@@ -5926,7 +5910,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C117" t="n">
         <v>24</v>
@@ -5965,7 +5949,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C118" t="n">
         <v>24</v>
@@ -6004,7 +5988,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>151</v>
+        <v>13.72727272727273</v>
       </c>
       <c r="C119" t="n">
         <v>3251</v>
@@ -6059,7 +6043,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C120" t="n">
         <v>1290</v>
@@ -6110,7 +6094,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C121" t="n">
         <v>268</v>
@@ -6151,7 +6135,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C122" t="n">
         <v>188</v>
@@ -6192,7 +6176,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>186</v>
+        <v>15.5</v>
       </c>
       <c r="C123" t="n">
         <v>5706</v>
@@ -6247,7 +6231,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C124" t="n">
         <v>500</v>
@@ -6288,7 +6272,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>316</v>
+        <v>19.75</v>
       </c>
       <c r="C125" t="n">
         <v>6492</v>
@@ -6343,7 +6327,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C126" t="n">
         <v>244</v>
@@ -6384,7 +6368,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>31</v>
+        <v>7.75</v>
       </c>
       <c r="C127" t="n">
         <v>10963</v>
@@ -6425,7 +6409,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C128" t="n">
         <v>976</v>
@@ -6480,7 +6464,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C129" t="n">
         <v>462</v>
@@ -6533,7 +6517,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>53</v>
+        <v>10.6</v>
       </c>
       <c r="C130" t="n">
         <v>2506</v>
@@ -6588,7 +6572,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C131" t="n">
         <v>418</v>
@@ -6629,7 +6613,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C132" t="n">
         <v>879</v>
@@ -6670,7 +6654,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C133" t="n">
         <v>264</v>
@@ -6711,7 +6695,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C134" t="n">
         <v>226</v>
@@ -6752,7 +6736,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C135" t="n">
         <v>184</v>
@@ -6797,7 +6781,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C136" t="n">
         <v>80</v>
@@ -6838,7 +6822,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>49</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C137" t="n">
         <v>3564</v>
@@ -6893,7 +6877,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>20</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="C138" t="n">
         <v>794</v>
@@ -6946,7 +6930,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C139" t="n">
         <v>136</v>
@@ -6987,7 +6971,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C140" t="n">
         <v>480</v>
@@ -7040,7 +7024,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C141" t="n">
         <v>206</v>
@@ -7095,7 +7079,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C142" t="n">
         <v>788</v>
@@ -7150,7 +7134,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C143" t="n">
         <v>182</v>
@@ -7205,7 +7189,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C144" t="n">
         <v>268</v>
@@ -7246,7 +7230,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C145" t="n">
         <v>98</v>
@@ -7285,7 +7269,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="C146" t="n">
         <v>1048</v>
@@ -7340,7 +7324,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C147" t="n">
         <v>2082</v>
@@ -7395,7 +7379,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C148" t="n">
         <v>138</v>
@@ -7438,7 +7422,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C149" t="n">
         <v>122</v>
@@ -7478,9 +7462,7 @@
           <t>Diplomingeniør - Materials Science Engineering</t>
         </is>
       </c>
-      <c r="B150" t="n">
-        <v>0</v>
-      </c>
+      <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
         <v>0</v>
       </c>
@@ -7518,7 +7500,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C151" t="n">
         <v>390</v>
@@ -7571,7 +7553,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C152" t="n">
         <v>84</v>
@@ -7616,7 +7598,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>58</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="C153" t="n">
         <v>590</v>
@@ -7671,7 +7653,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>116</v>
+        <v>16.57142857142857</v>
       </c>
       <c r="C154" t="n">
         <v>3322</v>
@@ -7726,7 +7708,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>70</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="C155" t="n">
         <v>1176</v>
@@ -7781,7 +7763,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C156" t="n">
         <v>168</v>
@@ -7825,9 +7807,7 @@
           <t>Diplomingeniør - design og anvendelse af kunstig intelligens</t>
         </is>
       </c>
-      <c r="B157" t="n">
-        <v>0</v>
-      </c>
+      <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
         <v>0</v>
       </c>
@@ -7867,7 +7847,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>102</v>
+        <v>20.4</v>
       </c>
       <c r="C158" t="n">
         <v>696</v>
@@ -7922,7 +7902,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>128</v>
+        <v>25.6</v>
       </c>
       <c r="C159" t="n">
         <v>818</v>
@@ -7977,7 +7957,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C160" t="n">
         <v>592</v>
@@ -8071,7 +8051,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C162" t="n">
         <v>336</v>
@@ -8116,7 +8096,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C163" t="n">
         <v>156</v>
@@ -8159,7 +8139,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C164" t="n">
         <v>895</v>
@@ -8214,7 +8194,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>49</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="C165" t="n">
         <v>394</v>
@@ -8269,7 +8249,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C166" t="n">
         <v>126</v>
@@ -8312,7 +8292,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C167" t="n">
         <v>306</v>
@@ -8365,7 +8345,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C168" t="n">
         <v>256</v>
@@ -8406,7 +8386,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C169" t="n">
         <v>216</v>
@@ -8449,7 +8429,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>126</v>
+        <v>25.2</v>
       </c>
       <c r="C170" t="n">
         <v>1012</v>
@@ -8504,7 +8484,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C171" t="n">
         <v>124</v>
@@ -8549,7 +8529,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C172" t="n">
         <v>160</v>
@@ -8591,9 +8571,7 @@
           <t>Diplomingeniør - maritim teknik</t>
         </is>
       </c>
-      <c r="B173" t="n">
-        <v>0</v>
-      </c>
+      <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
         <v>0</v>
       </c>
@@ -8631,7 +8609,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="C174" t="n">
         <v>2542</v>
@@ -8686,7 +8664,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C175" t="n">
         <v>1392</v>
@@ -8741,7 +8719,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C176" t="n">
         <v>334</v>
@@ -8786,7 +8764,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C177" t="n">
         <v>550</v>
@@ -8841,7 +8819,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C178" t="n">
         <v>278</v>
@@ -8894,7 +8872,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>94</v>
+        <v>18.8</v>
       </c>
       <c r="C179" t="n">
         <v>3214</v>
@@ -8949,7 +8927,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>73</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="C180" t="n">
         <v>526</v>
@@ -9004,7 +8982,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C181" t="n">
         <v>162</v>
@@ -9045,7 +9023,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C182" t="n">
         <v>210</v>
@@ -9098,7 +9076,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C183" t="n">
         <v>98</v>
@@ -9141,7 +9119,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>34</v>
+        <v>8.5</v>
       </c>
       <c r="C184" t="n">
         <v>354</v>
@@ -9186,7 +9164,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C185" t="n">
         <v>70</v>
@@ -9267,9 +9245,7 @@
           <t>E-commerce og digital marketing</t>
         </is>
       </c>
-      <c r="B187" t="n">
-        <v>0</v>
-      </c>
+      <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
         <v>0</v>
       </c>
@@ -9309,7 +9285,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C188" t="n">
         <v>256</v>
@@ -9362,7 +9338,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C189" t="n">
         <v>228</v>
@@ -9415,7 +9391,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C190" t="n">
         <v>764</v>
@@ -9468,7 +9444,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C191" t="n">
         <v>102</v>
@@ -9509,7 +9485,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>34</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="C192" t="n">
         <v>180</v>
@@ -9552,7 +9528,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>55</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="C193" t="n">
         <v>277</v>
@@ -9590,9 +9566,7 @@
           <t>Elektronik og it</t>
         </is>
       </c>
-      <c r="B194" t="n">
-        <v>0</v>
-      </c>
+      <c r="B194" t="inlineStr"/>
       <c r="C194" t="n">
         <v>0</v>
       </c>
@@ -9630,7 +9604,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C195" t="n">
         <v>244</v>
@@ -9671,7 +9645,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C196" t="n">
         <v>26</v>
@@ -9710,7 +9684,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="C197" t="n">
         <v>1437</v>
@@ -9751,7 +9725,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C198" t="n">
         <v>614</v>
@@ -9792,7 +9766,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>136</v>
+        <v>15.11111111111111</v>
       </c>
       <c r="C199" t="n">
         <v>854</v>
@@ -9847,7 +9821,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>77</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="C200" t="n">
         <v>324</v>
@@ -9888,7 +9862,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>23</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="C201" t="n">
         <v>230</v>
@@ -9931,7 +9905,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="C202" t="n">
         <v>206</v>
@@ -9974,7 +9948,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>137</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="C203" t="n">
         <v>454</v>
@@ -10029,7 +10003,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="C204" t="n">
         <v>206</v>
@@ -10072,7 +10046,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C205" t="n">
         <v>384</v>
@@ -10125,7 +10099,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>141</v>
+        <v>14.1</v>
       </c>
       <c r="C206" t="n">
         <v>3210</v>
@@ -10180,7 +10154,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C207" t="n">
         <v>216</v>
@@ -10225,7 +10199,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C208" t="n">
         <v>544</v>
@@ -10280,7 +10254,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C209" t="n">
         <v>90</v>
@@ -10321,7 +10295,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C210" t="n">
         <v>324</v>
@@ -10376,7 +10350,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C211" t="n">
         <v>212</v>
@@ -10419,7 +10393,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C212" t="n">
         <v>64</v>
@@ -10462,7 +10436,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>26</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="C213" t="n">
         <v>688</v>
@@ -10507,7 +10481,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C214" t="n">
         <v>152</v>
@@ -10552,7 +10526,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>16</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="C215" t="n">
         <v>618</v>
@@ -10607,7 +10581,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C216" t="n">
         <v>104</v>
@@ -10650,7 +10624,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C217" t="n">
         <v>212</v>
@@ -10705,7 +10679,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C218" t="n">
         <v>162</v>
@@ -10748,7 +10722,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>155</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="C219" t="n">
         <v>3530</v>
@@ -10803,7 +10777,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C220" t="n">
         <v>92</v>
@@ -10846,7 +10820,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>23</v>
+        <v>5.75</v>
       </c>
       <c r="C221" t="n">
         <v>1178</v>
@@ -10901,7 +10875,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C222" t="n">
         <v>476</v>
@@ -10942,7 +10916,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C223" t="n">
         <v>818</v>
@@ -10982,9 +10956,7 @@
           <t>Erhvervsøkonomi med tilvalg</t>
         </is>
       </c>
-      <c r="B224" t="n">
-        <v>0</v>
-      </c>
+      <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
         <v>0</v>
       </c>
@@ -11022,7 +10994,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>104</v>
+        <v>10.4</v>
       </c>
       <c r="C225" t="n">
         <v>4918</v>
@@ -11077,7 +11049,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C226" t="n">
         <v>436</v>
@@ -11118,7 +11090,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C227" t="n">
         <v>904</v>
@@ -11173,7 +11145,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C228" t="n">
         <v>804</v>
@@ -11214,7 +11186,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="C229" t="n">
         <v>1460</v>
@@ -11269,7 +11241,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C230" t="n">
         <v>1888</v>
@@ -11324,7 +11296,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>183</v>
+        <v>18.3</v>
       </c>
       <c r="C231" t="n">
         <v>14834</v>
@@ -11365,7 +11337,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C232" t="n">
         <v>18328</v>
@@ -11420,7 +11392,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C233" t="n">
         <v>94</v>
@@ -11465,7 +11437,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>101</v>
+        <v>20.2</v>
       </c>
       <c r="C234" t="n">
         <v>2554</v>
@@ -11520,7 +11492,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>37</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="C235" t="n">
         <v>940</v>
@@ -11575,7 +11547,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>82</v>
+        <v>20.5</v>
       </c>
       <c r="C236" t="n">
         <v>442</v>
@@ -11630,7 +11602,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="C237" t="n">
         <v>700</v>
@@ -11685,7 +11657,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C238" t="n">
         <v>176</v>
@@ -11738,7 +11710,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>53</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="C239" t="n">
         <v>3160</v>
@@ -11793,7 +11765,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C240" t="n">
         <v>98</v>
@@ -11836,7 +11808,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>37</v>
+        <v>9.25</v>
       </c>
       <c r="C241" t="n">
         <v>1115</v>
@@ -11891,7 +11863,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C242" t="n">
         <v>98</v>
@@ -11934,7 +11906,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C243" t="n">
         <v>98</v>
@@ -11977,7 +11949,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C244" t="n">
         <v>98</v>
@@ -12019,9 +11991,7 @@
           <t>Filmproduktionsledelse</t>
         </is>
       </c>
-      <c r="B245" t="n">
-        <v>0</v>
-      </c>
+      <c r="B245" t="inlineStr"/>
       <c r="C245" t="n">
         <v>0</v>
       </c>
@@ -12059,7 +12029,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C246" t="n">
         <v>98</v>
@@ -12102,7 +12072,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>143</v>
+        <v>17.875</v>
       </c>
       <c r="C247" t="n">
         <v>1197</v>
@@ -12157,7 +12127,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C248" t="n">
         <v>264</v>
@@ -12200,7 +12170,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>206</v>
+        <v>25.75</v>
       </c>
       <c r="C249" t="n">
         <v>1684</v>
@@ -12253,7 +12223,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>226</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="C250" t="n">
         <v>5712</v>
@@ -12308,7 +12278,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>380</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="C251" t="n">
         <v>12709</v>
@@ -12363,7 +12333,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="C252" t="n">
         <v>222</v>
@@ -12406,7 +12376,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C253" t="n">
         <v>40</v>
@@ -12449,7 +12419,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C254" t="n">
         <v>142</v>
@@ -12492,7 +12462,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>97</v>
+        <v>10.77777777777778</v>
       </c>
       <c r="C255" t="n">
         <v>2280</v>
@@ -12547,7 +12517,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C256" t="n">
         <v>150</v>
@@ -12602,7 +12572,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
         <v>400</v>
@@ -12657,7 +12627,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C258" t="n">
         <v>262</v>
@@ -12712,7 +12682,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C259" t="n">
         <v>308</v>
@@ -12806,7 +12776,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C261" t="n">
         <v>280</v>
@@ -12851,7 +12821,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C262" t="n">
         <v>408</v>
@@ -12947,7 +12917,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>94</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="C264" t="n">
         <v>324</v>
@@ -12992,7 +12962,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>51</v>
+        <v>25.5</v>
       </c>
       <c r="C265" t="n">
         <v>978</v>
@@ -13037,7 +13007,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>164</v>
+        <v>16.4</v>
       </c>
       <c r="C266" t="n">
         <v>2655</v>
@@ -13092,7 +13062,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C267" t="n">
         <v>356</v>
@@ -13133,7 +13103,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>80</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="C268" t="n">
         <v>234</v>
@@ -13186,7 +13156,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>146</v>
+        <v>13.27272727272727</v>
       </c>
       <c r="C269" t="n">
         <v>6682</v>
@@ -13241,7 +13211,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C270" t="n">
         <v>140</v>
@@ -13294,7 +13264,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C271" t="n">
         <v>790</v>
@@ -13337,7 +13307,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C272" t="n">
         <v>44</v>
@@ -13415,7 +13385,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C274" t="n">
         <v>136</v>
@@ -13458,7 +13428,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C275" t="n">
         <v>274</v>
@@ -13513,7 +13483,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C276" t="n">
         <v>316</v>
@@ -13554,7 +13524,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>52</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="C277" t="n">
         <v>584</v>
@@ -13595,7 +13565,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>22</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="C278" t="n">
         <v>368</v>
@@ -13650,7 +13620,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>34</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="C279" t="n">
         <v>414</v>
@@ -13691,7 +13661,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C280" t="n">
         <v>280</v>
@@ -13746,7 +13716,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C281" t="n">
         <v>38</v>
@@ -13789,7 +13759,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C282" t="n">
         <v>504</v>
@@ -13830,7 +13800,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C283" t="n">
         <v>250</v>
@@ -13882,9 +13852,7 @@
           <t>Global Environment and Development</t>
         </is>
       </c>
-      <c r="B284" t="n">
-        <v>0</v>
-      </c>
+      <c r="B284" t="inlineStr"/>
       <c r="C284" t="n">
         <v>0</v>
       </c>
@@ -13922,7 +13890,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C285" t="n">
         <v>228</v>
@@ -13965,7 +13933,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C286" t="n">
         <v>348</v>
@@ -14006,7 +13974,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C287" t="n">
         <v>716</v>
@@ -14061,7 +14029,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C288" t="n">
         <v>228</v>
@@ -14104,7 +14072,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C289" t="n">
         <v>272</v>
@@ -14145,7 +14113,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C290" t="n">
         <v>86</v>
@@ -14198,7 +14166,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C291" t="n">
         <v>526</v>
@@ -14253,7 +14221,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C292" t="n">
         <v>165</v>
@@ -14294,7 +14262,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C293" t="n">
         <v>60</v>
@@ -14333,7 +14301,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>45</v>
+        <v>11.25</v>
       </c>
       <c r="C294" t="n">
         <v>1900</v>
@@ -14376,7 +14344,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C295" t="n">
         <v>1052</v>
@@ -14417,7 +14385,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C296" t="n">
         <v>536</v>
@@ -14458,7 +14426,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>239</v>
+        <v>23.9</v>
       </c>
       <c r="C297" t="n">
         <v>2510</v>
@@ -14513,7 +14481,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>136</v>
+        <v>12.36363636363636</v>
       </c>
       <c r="C298" t="n">
         <v>3610</v>
@@ -14568,7 +14536,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C299" t="n">
         <v>224</v>
@@ -14623,7 +14591,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C300" t="n">
         <v>176</v>
@@ -14668,7 +14636,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C301" t="n">
         <v>604</v>
@@ -14723,7 +14691,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C302" t="n">
         <v>254</v>
@@ -14776,7 +14744,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C303" t="n">
         <v>556</v>
@@ -14829,7 +14797,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C304" t="n">
         <v>224</v>
@@ -14884,7 +14852,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C305" t="n">
         <v>328</v>
@@ -14939,7 +14907,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C306" t="n">
         <v>2736</v>
@@ -14980,7 +14948,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C307" t="n">
         <v>210</v>
@@ -15035,7 +15003,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C308" t="n">
         <v>1046</v>
@@ -15076,7 +15044,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C309" t="n">
         <v>212</v>
@@ -15129,7 +15097,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C310" t="n">
         <v>130</v>
@@ -15172,7 +15140,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C311" t="n">
         <v>204</v>
@@ -15227,7 +15195,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>104</v>
+        <v>10.4</v>
       </c>
       <c r="C312" t="n">
         <v>3900</v>
@@ -15282,7 +15250,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C313" t="n">
         <v>54</v>
@@ -15323,7 +15291,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>78</v>
+        <v>19.5</v>
       </c>
       <c r="C314" t="n">
         <v>300</v>
@@ -15368,7 +15336,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C315" t="n">
         <v>160</v>
@@ -15421,7 +15389,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C316" t="n">
         <v>32</v>
@@ -15464,7 +15432,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>92</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="C317" t="n">
         <v>96</v>
@@ -15503,7 +15471,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C318" t="n">
         <v>50</v>
@@ -15546,7 +15514,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C319" t="n">
         <v>204</v>
@@ -15591,7 +15559,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C320" t="n">
         <v>810</v>
@@ -15646,7 +15614,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>53</v>
+        <v>26.5</v>
       </c>
       <c r="C321" t="n">
         <v>1663</v>
@@ -15727,9 +15695,7 @@
           <t>Information Architecture</t>
         </is>
       </c>
-      <c r="B323" t="n">
-        <v>0</v>
-      </c>
+      <c r="B323" t="inlineStr"/>
       <c r="C323" t="n">
         <v>0</v>
       </c>
@@ -15771,7 +15737,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C324" t="n">
         <v>468</v>
@@ -15812,7 +15778,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C325" t="n">
         <v>314</v>
@@ -15853,7 +15819,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>47</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="C326" t="n">
         <v>1228</v>
@@ -15906,7 +15872,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C327" t="n">
         <v>292</v>
@@ -15961,7 +15927,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C328" t="n">
         <v>46</v>
@@ -16000,7 +15966,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C329" t="n">
         <v>200</v>
@@ -16041,7 +16007,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>140</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="C330" t="n">
         <v>2328</v>
@@ -16094,7 +16060,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C331" t="n">
         <v>68</v>
@@ -16135,7 +16101,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C332" t="n">
         <v>178</v>
@@ -16188,7 +16154,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C333" t="n">
         <v>12111</v>
@@ -16229,7 +16195,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="C334" t="n">
         <v>294</v>
@@ -16272,7 +16238,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C335" t="n">
         <v>144</v>
@@ -16313,7 +16279,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C336" t="n">
         <v>252</v>
@@ -16366,7 +16332,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C337" t="n">
         <v>168</v>
@@ -16407,7 +16373,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>22</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="C338" t="n">
         <v>404</v>
@@ -16458,7 +16424,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C339" t="n">
         <v>1124</v>
@@ -16499,7 +16465,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>22</v>
+        <v>5.5</v>
       </c>
       <c r="C340" t="n">
         <v>1314</v>
@@ -16554,7 +16520,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>54</v>
+        <v>10.8</v>
       </c>
       <c r="C341" t="n">
         <v>1170</v>
@@ -16609,7 +16575,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C342" t="n">
         <v>198</v>
@@ -16652,7 +16618,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>20</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="C343" t="n">
         <v>794</v>
@@ -16705,7 +16671,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C344" t="n">
         <v>358</v>
@@ -16758,7 +16724,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C345" t="n">
         <v>350</v>
@@ -16799,7 +16765,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C346" t="n">
         <v>182</v>
@@ -16852,7 +16818,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C347" t="n">
         <v>256</v>
@@ -16893,7 +16859,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>71</v>
+        <v>6.454545454545454</v>
       </c>
       <c r="C348" t="n">
         <v>4584</v>
@@ -16948,7 +16914,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C349" t="n">
         <v>78</v>
@@ -16987,7 +16953,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>115</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="C350" t="n">
         <v>1912</v>
@@ -17028,7 +16994,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C351" t="n">
         <v>84</v>
@@ -17067,7 +17033,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C352" t="n">
         <v>201</v>
@@ -17106,7 +17072,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>85</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="C353" t="n">
         <v>268</v>
@@ -17146,9 +17112,7 @@
           <t>Internationale studier</t>
         </is>
       </c>
-      <c r="B354" t="n">
-        <v>0</v>
-      </c>
+      <c r="B354" t="inlineStr"/>
       <c r="C354" t="n">
         <v>0</v>
       </c>
@@ -17192,7 +17156,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C355" t="n">
         <v>30</v>
@@ -17278,7 +17242,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>16</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="C357" t="n">
         <v>1092</v>
@@ -17333,7 +17297,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>17</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="C358" t="n">
         <v>458</v>
@@ -17386,7 +17350,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>121</v>
+        <v>30.25</v>
       </c>
       <c r="C359" t="n">
         <v>370</v>
@@ -17427,7 +17391,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C360" t="n">
         <v>126</v>
@@ -17470,7 +17434,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C361" t="n">
         <v>390</v>
@@ -17525,7 +17489,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C362" t="n">
         <v>242</v>
@@ -17566,7 +17530,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="C363" t="n">
         <v>775</v>
@@ -17619,7 +17583,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>158</v>
+        <v>26.33333333333333</v>
       </c>
       <c r="C364" t="n">
         <v>1560</v>
@@ -17674,7 +17638,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>122</v>
+        <v>30.5</v>
       </c>
       <c r="C365" t="n">
         <v>126</v>
@@ -17717,7 +17681,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="C366" t="n">
         <v>376</v>
@@ -17758,7 +17722,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>29</v>
+        <v>7.25</v>
       </c>
       <c r="C367" t="n">
         <v>264</v>
@@ -17813,7 +17777,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>71</v>
+        <v>17.75</v>
       </c>
       <c r="C368" t="n">
         <v>1102</v>
@@ -17868,7 +17832,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>46</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C369" t="n">
         <v>1534</v>
@@ -17923,7 +17887,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C370" t="n">
         <v>36</v>
@@ -17966,7 +17930,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C371" t="n">
         <v>1342</v>
@@ -18021,7 +17985,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="C372" t="n">
         <v>1948</v>
@@ -18076,7 +18040,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C373" t="n">
         <v>602</v>
@@ -18117,7 +18081,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>65</v>
+        <v>6.5</v>
       </c>
       <c r="C374" t="n">
         <v>15660</v>
@@ -18172,7 +18136,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C375" t="n">
         <v>702</v>
@@ -18225,7 +18189,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>118</v>
+        <v>11.8</v>
       </c>
       <c r="C376" t="n">
         <v>1163</v>
@@ -18280,7 +18244,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C377" t="n">
         <v>338</v>
@@ -18321,7 +18285,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>55</v>
+        <v>13.75</v>
       </c>
       <c r="C378" t="n">
         <v>818</v>
@@ -18362,7 +18326,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C379" t="n">
         <v>510</v>
@@ -18417,7 +18381,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>71</v>
+        <v>23.66666666666667</v>
       </c>
       <c r="C380" t="n">
         <v>324</v>
@@ -18458,7 +18422,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C381" t="n">
         <v>992</v>
@@ -18513,7 +18477,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>93</v>
+        <v>18.6</v>
       </c>
       <c r="C382" t="n">
         <v>276</v>
@@ -18558,7 +18522,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>85</v>
+        <v>21.25</v>
       </c>
       <c r="C383" t="n">
         <v>150</v>
@@ -18601,7 +18565,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="C384" t="n">
         <v>1868</v>
@@ -18643,9 +18607,7 @@
           <t>Klimatilpasning</t>
         </is>
       </c>
-      <c r="B385" t="n">
-        <v>0</v>
-      </c>
+      <c r="B385" t="inlineStr"/>
       <c r="C385" t="n">
         <v>0</v>
       </c>
@@ -18683,7 +18645,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C386" t="n">
         <v>62</v>
@@ -18736,7 +18698,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C387" t="n">
         <v>298</v>
@@ -18832,7 +18794,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C389" t="n">
         <v>256</v>
@@ -18886,9 +18848,7 @@
           <t>Kognitions- og datavidenskab</t>
         </is>
       </c>
-      <c r="B390" t="n">
-        <v>0</v>
-      </c>
+      <c r="B390" t="inlineStr"/>
       <c r="C390" t="n">
         <v>0</v>
       </c>
@@ -18927,9 +18887,7 @@
           <t>Kognitiv semiotik</t>
         </is>
       </c>
-      <c r="B391" t="n">
-        <v>0</v>
-      </c>
+      <c r="B391" t="inlineStr"/>
       <c r="C391" t="n">
         <v>0</v>
       </c>
@@ -18969,7 +18927,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>55</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="C392" t="n">
         <v>2206</v>
@@ -19024,7 +18982,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>37</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="C393" t="n">
         <v>1014</v>
@@ -19065,7 +19023,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C394" t="n">
         <v>920</v>
@@ -19118,7 +19076,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C395" t="n">
         <v>112</v>
@@ -19161,7 +19119,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="C396" t="n">
         <v>146</v>
@@ -19206,7 +19164,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C397" t="n">
         <v>112</v>
@@ -19249,7 +19207,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C398" t="n">
         <v>146</v>
@@ -19290,7 +19248,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C399" t="n">
         <v>584</v>
@@ -19345,7 +19303,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C400" t="n">
         <v>248</v>
@@ -19398,7 +19356,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>85</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="C401" t="n">
         <v>296</v>
@@ -19451,7 +19409,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="C402" t="n">
         <v>303</v>
@@ -19506,7 +19464,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C403" t="n">
         <v>150</v>
@@ -19551,7 +19509,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C404" t="n">
         <v>122</v>
@@ -19590,7 +19548,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>98</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="C405" t="n">
         <v>864</v>
@@ -19644,9 +19602,7 @@
           <t>Kunstig intelligens</t>
         </is>
       </c>
-      <c r="B406" t="n">
-        <v>0</v>
-      </c>
+      <c r="B406" t="inlineStr"/>
       <c r="C406" t="n">
         <v>0</v>
       </c>
@@ -19686,7 +19642,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C407" t="n">
         <v>586</v>
@@ -19727,7 +19683,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>55</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="C408" t="n">
         <v>434</v>
@@ -19782,7 +19738,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>213</v>
+        <v>23.66666666666667</v>
       </c>
       <c r="C409" t="n">
         <v>2932</v>
@@ -19837,7 +19793,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>44</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="C410" t="n">
         <v>198</v>
@@ -19882,7 +19838,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>43</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="C411" t="n">
         <v>336</v>
@@ -19923,7 +19879,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C412" t="n">
         <v>348</v>
@@ -19978,7 +19934,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C413" t="n">
         <v>390</v>
@@ -20019,7 +19975,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C414" t="n">
         <v>60</v>
@@ -20058,7 +20014,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="C415" t="n">
         <v>147</v>
@@ -20099,7 +20055,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C416" t="n">
         <v>764</v>
@@ -20140,7 +20096,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C417" t="n">
         <v>146</v>
@@ -20183,7 +20139,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>94</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="C418" t="n">
         <v>560</v>
@@ -20238,7 +20194,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>93</v>
+        <v>11.625</v>
       </c>
       <c r="C419" t="n">
         <v>1324</v>
@@ -20293,7 +20249,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>127</v>
+        <v>25.4</v>
       </c>
       <c r="C420" t="n">
         <v>1118</v>
@@ -20348,7 +20304,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C421" t="n">
         <v>237</v>
@@ -20391,7 +20347,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C422" t="n">
         <v>456</v>
@@ -20442,7 +20398,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>337</v>
+        <v>17.73684210526316</v>
       </c>
       <c r="C423" t="n">
         <v>19554</v>
@@ -20497,7 +20453,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C424" t="n">
         <v>642</v>
@@ -20552,7 +20508,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C425" t="n">
         <v>440</v>
@@ -20592,9 +20548,7 @@
           <t>Management Engineering</t>
         </is>
       </c>
-      <c r="B426" t="n">
-        <v>0</v>
-      </c>
+      <c r="B426" t="inlineStr"/>
       <c r="C426" t="n">
         <v>0</v>
       </c>
@@ -20634,7 +20588,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C427" t="n">
         <v>528</v>
@@ -20677,7 +20631,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C428" t="n">
         <v>98</v>
@@ -20720,7 +20674,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>325</v>
+        <v>18.05555555555556</v>
       </c>
       <c r="C429" t="n">
         <v>13728</v>
@@ -20775,7 +20729,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C430" t="n">
         <v>454</v>
@@ -20816,7 +20770,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>139</v>
+        <v>15.44444444444444</v>
       </c>
       <c r="C431" t="n">
         <v>6072</v>
@@ -20871,7 +20825,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>67</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="C432" t="n">
         <v>64</v>
@@ -20912,7 +20866,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>154</v>
+        <v>15.4</v>
       </c>
       <c r="C433" t="n">
         <v>2115</v>
@@ -20967,7 +20921,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C434" t="n">
         <v>452</v>
@@ -21008,7 +20962,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C435" t="n">
         <v>160</v>
@@ -21051,7 +21005,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>128</v>
+        <v>12.8</v>
       </c>
       <c r="C436" t="n">
         <v>1888</v>
@@ -21106,7 +21060,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C437" t="n">
         <v>282</v>
@@ -21160,9 +21114,7 @@
           <t>Materials and Nanotechnology</t>
         </is>
       </c>
-      <c r="B438" t="n">
-        <v>0</v>
-      </c>
+      <c r="B438" t="inlineStr"/>
       <c r="C438" t="n">
         <v>0</v>
       </c>
@@ -21202,7 +21154,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="C439" t="n">
         <v>706</v>
@@ -21241,7 +21193,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C440" t="n">
         <v>816</v>
@@ -21296,7 +21248,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>26</v>
+        <v>6.5</v>
       </c>
       <c r="C441" t="n">
         <v>1100</v>
@@ -21349,7 +21301,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="C442" t="n">
         <v>314</v>
@@ -21402,7 +21354,7 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C443" t="n">
         <v>404</v>
@@ -21455,7 +21407,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>52</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="C444" t="n">
         <v>592</v>
@@ -21496,7 +21448,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>25</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="C445" t="n">
         <v>408</v>
@@ -21551,7 +21503,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>25</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="C446" t="n">
         <v>17594</v>
@@ -21606,7 +21558,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C447" t="n">
         <v>584</v>
@@ -21647,7 +21599,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C448" t="n">
         <v>510</v>
@@ -21688,7 +21640,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="C449" t="n">
         <v>296</v>
@@ -21743,7 +21695,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>68</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="C450" t="n">
         <v>494</v>
@@ -21784,7 +21736,7 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C451" t="n">
         <v>314</v>
@@ -21839,7 +21791,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C452" t="n">
         <v>292</v>
@@ -21894,7 +21846,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>65</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="C453" t="n">
         <v>1574</v>
@@ -21948,9 +21900,7 @@
           <t>Mekanik</t>
         </is>
       </c>
-      <c r="B454" t="n">
-        <v>0</v>
-      </c>
+      <c r="B454" t="inlineStr"/>
       <c r="C454" t="n">
         <v>0</v>
       </c>
@@ -21988,7 +21938,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C455" t="n">
         <v>338</v>
@@ -22029,7 +21979,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="C456" t="n">
         <v>214</v>
@@ -22070,7 +22020,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>57</v>
+        <v>28.5</v>
       </c>
       <c r="C457" t="n">
         <v>386</v>
@@ -22111,7 +22061,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C458" t="n">
         <v>396</v>
@@ -22190,9 +22140,7 @@
           <t>Miljøkemi og forvaltning</t>
         </is>
       </c>
-      <c r="B460" t="n">
-        <v>0</v>
-      </c>
+      <c r="B460" t="inlineStr"/>
       <c r="C460" t="n">
         <v>0</v>
       </c>
@@ -22230,7 +22178,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>58</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="C461" t="n">
         <v>362</v>
@@ -22283,7 +22231,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C462" t="n">
         <v>298</v>
@@ -22324,7 +22272,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C463" t="n">
         <v>242</v>
@@ -22379,7 +22327,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C464" t="n">
         <v>254</v>
@@ -22432,7 +22380,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C465" t="n">
         <v>251</v>
@@ -22487,7 +22435,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
         <v>367</v>
@@ -22540,7 +22488,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="C467" t="n">
         <v>260</v>
@@ -22583,7 +22531,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C468" t="n">
         <v>113</v>
@@ -22628,7 +22576,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C469" t="n">
         <v>582</v>
@@ -22669,7 +22617,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>31</v>
+        <v>7.75</v>
       </c>
       <c r="C470" t="n">
         <v>723</v>
@@ -22724,7 +22672,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C471" t="n">
         <v>432</v>
@@ -22765,7 +22713,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>252</v>
+        <v>16.8</v>
       </c>
       <c r="C472" t="n">
         <v>6714</v>
@@ -22820,7 +22768,7 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C473" t="n">
         <v>180</v>
@@ -22951,7 +22899,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>43</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="C476" t="n">
         <v>1240</v>
@@ -23031,7 +22979,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>31</v>
+        <v>6.2</v>
       </c>
       <c r="C478" t="n">
         <v>1080</v>
@@ -23072,7 +23020,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="C479" t="n">
         <v>112</v>
@@ -23115,7 +23063,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>79</v>
+        <v>9.875</v>
       </c>
       <c r="C480" t="n">
         <v>1103</v>
@@ -23170,7 +23118,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C481" t="n">
         <v>134</v>
@@ -23211,7 +23159,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C482" t="n">
         <v>42</v>
@@ -23252,7 +23200,7 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C483" t="n">
         <v>595</v>
@@ -23307,7 +23255,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C484" t="n">
         <v>219</v>
@@ -23351,9 +23299,7 @@
           <t>Natur og jordbrugsproduktion</t>
         </is>
       </c>
-      <c r="B485" t="n">
-        <v>0</v>
-      </c>
+      <c r="B485" t="inlineStr"/>
       <c r="C485" t="n">
         <v>0</v>
       </c>
@@ -23391,7 +23337,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C486" t="n">
         <v>364</v>
@@ -23444,7 +23390,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C487" t="n">
         <v>260</v>
@@ -23497,7 +23443,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C488" t="n">
         <v>260</v>
@@ -23589,7 +23535,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C490" t="n">
         <v>544</v>
@@ -23630,7 +23576,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C491" t="n">
         <v>168</v>
@@ -23670,9 +23616,7 @@
           <t>Neuroscience and Neuroimaging</t>
         </is>
       </c>
-      <c r="B492" t="n">
-        <v>0</v>
-      </c>
+      <c r="B492" t="inlineStr"/>
       <c r="C492" t="n">
         <v>0</v>
       </c>
@@ -23710,7 +23654,7 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C493" t="n">
         <v>236</v>
@@ -23761,7 +23705,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C494" t="n">
         <v>9250</v>
@@ -23803,9 +23747,7 @@
           <t>Ocean Engineering</t>
         </is>
       </c>
-      <c r="B495" t="n">
-        <v>0</v>
-      </c>
+      <c r="B495" t="inlineStr"/>
       <c r="C495" t="n">
         <v>0</v>
       </c>
@@ -23845,7 +23787,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>20</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="C496" t="n">
         <v>1976</v>
@@ -23900,7 +23842,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="C497" t="n">
         <v>2791</v>
@@ -23955,7 +23897,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>86</v>
+        <v>21.5</v>
       </c>
       <c r="C498" t="n">
         <v>152</v>
@@ -23998,7 +23940,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C499" t="n">
         <v>698</v>
@@ -24053,7 +23995,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C500" t="n">
         <v>226</v>
@@ -24096,7 +24038,7 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C501" t="n">
         <v>122</v>
@@ -24139,7 +24081,7 @@
         </is>
       </c>
       <c r="B502" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C502" t="n">
         <v>198</v>
@@ -24194,7 +24136,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C503" t="n">
         <v>96</v>
@@ -24237,7 +24179,7 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>58</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="C504" t="n">
         <v>704</v>
@@ -24292,7 +24234,7 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C505" t="n">
         <v>504</v>
@@ -24347,7 +24289,7 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C506" t="n">
         <v>238</v>
@@ -24388,7 +24330,7 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C507" t="n">
         <v>370</v>
@@ -24443,7 +24385,7 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C508" t="n">
         <v>266</v>
@@ -24498,7 +24440,7 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C509" t="n">
         <v>576</v>
@@ -24537,7 +24479,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C510" t="n">
         <v>68</v>
@@ -24589,9 +24531,7 @@
           <t>Plante- og fødevarevidenskab</t>
         </is>
       </c>
-      <c r="B511" t="n">
-        <v>0</v>
-      </c>
+      <c r="B511" t="inlineStr"/>
       <c r="C511" t="n">
         <v>0</v>
       </c>
@@ -24629,7 +24569,7 @@
         </is>
       </c>
       <c r="B512" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C512" t="n">
         <v>3162</v>
@@ -24672,7 +24612,7 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="C513" t="n">
         <v>811</v>
@@ -24727,7 +24667,7 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C514" t="n">
         <v>520</v>
@@ -24782,7 +24722,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C515" t="n">
         <v>318</v>
@@ -24823,7 +24763,7 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C516" t="n">
         <v>802</v>
@@ -24864,7 +24804,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C517" t="n">
         <v>384</v>
@@ -24918,9 +24858,7 @@
           <t>Polsk sprog og kultur</t>
         </is>
       </c>
-      <c r="B518" t="n">
-        <v>0</v>
-      </c>
+      <c r="B518" t="inlineStr"/>
       <c r="C518" t="n">
         <v>0</v>
       </c>
@@ -24959,9 +24897,7 @@
           <t>Population Studies</t>
         </is>
       </c>
-      <c r="B519" t="n">
-        <v>0</v>
-      </c>
+      <c r="B519" t="inlineStr"/>
       <c r="C519" t="n">
         <v>0</v>
       </c>
@@ -24999,7 +24935,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>65</v>
+        <v>16.25</v>
       </c>
       <c r="C520" t="n">
         <v>6361</v>
@@ -25042,7 +24978,7 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>67</v>
+        <v>13.4</v>
       </c>
       <c r="C521" t="n">
         <v>763</v>
@@ -25097,7 +25033,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C522" t="n">
         <v>894</v>
@@ -25152,7 +25088,7 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C523" t="n">
         <v>258</v>
@@ -25207,7 +25143,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>62</v>
+        <v>15.5</v>
       </c>
       <c r="C524" t="n">
         <v>146</v>
@@ -25250,7 +25186,7 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C525" t="n">
         <v>88</v>
@@ -25291,7 +25227,7 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C526" t="n">
         <v>1286</v>
@@ -25332,7 +25268,7 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>251</v>
+        <v>20.91666666666667</v>
       </c>
       <c r="C527" t="n">
         <v>1454</v>
@@ -25387,7 +25323,7 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C528" t="n">
         <v>256</v>
@@ -25428,7 +25364,7 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>71</v>
+        <v>14.2</v>
       </c>
       <c r="C529" t="n">
         <v>552</v>
@@ -25522,7 +25458,7 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>38</v>
+        <v>3.8</v>
       </c>
       <c r="C531" t="n">
         <v>8886</v>
@@ -25577,7 +25513,7 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>37</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="C532" t="n">
         <v>708</v>
@@ -25632,7 +25568,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>339</v>
+        <v>14.125</v>
       </c>
       <c r="C533" t="n">
         <v>31627</v>
@@ -25687,7 +25623,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>85</v>
+        <v>12.14285714285714</v>
       </c>
       <c r="C534" t="n">
         <v>1286</v>
@@ -25742,7 +25678,7 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>37</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="C535" t="n">
         <v>594</v>
@@ -25797,7 +25733,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>58</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="C536" t="n">
         <v>306</v>
@@ -25852,7 +25788,7 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>14</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C537" t="n">
         <v>1482</v>
@@ -25907,7 +25843,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>41</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="C538" t="n">
         <v>794</v>
@@ -25962,7 +25898,7 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C539" t="n">
         <v>86</v>
@@ -26004,9 +25940,7 @@
           <t>Quantum Information Science</t>
         </is>
       </c>
-      <c r="B540" t="n">
-        <v>0</v>
-      </c>
+      <c r="B540" t="inlineStr"/>
       <c r="C540" t="n">
         <v>0</v>
       </c>
@@ -26045,9 +25979,7 @@
           <t>Quantum Technologies and Engineering</t>
         </is>
       </c>
-      <c r="B541" t="n">
-        <v>0</v>
-      </c>
+      <c r="B541" t="inlineStr"/>
       <c r="C541" t="n">
         <v>0</v>
       </c>
@@ -26085,7 +26017,7 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>117</v>
+        <v>23.4</v>
       </c>
       <c r="C542" t="n">
         <v>1440</v>
@@ -26140,7 +26072,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>138</v>
+        <v>17.25</v>
       </c>
       <c r="C543" t="n">
         <v>1016</v>
@@ -26195,7 +26127,7 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C544" t="n">
         <v>34</v>
@@ -26238,7 +26170,7 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C545" t="n">
         <v>642</v>
@@ -26293,7 +26225,7 @@
         </is>
       </c>
       <c r="B546" t="n">
-        <v>38</v>
+        <v>7.6</v>
       </c>
       <c r="C546" t="n">
         <v>3840</v>
@@ -26348,7 +26280,7 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C547" t="n">
         <v>112</v>
@@ -26391,7 +26323,7 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="C548" t="n">
         <v>364</v>
@@ -26444,7 +26376,7 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C549" t="n">
         <v>293</v>
@@ -26495,7 +26427,7 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>64</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="C550" t="n">
         <v>576</v>
@@ -26536,7 +26468,7 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C551" t="n">
         <v>102</v>
@@ -26574,9 +26506,7 @@
           <t>Russisk sprog og kultur</t>
         </is>
       </c>
-      <c r="B552" t="n">
-        <v>0</v>
-      </c>
+      <c r="B552" t="inlineStr"/>
       <c r="C552" t="n">
         <v>0</v>
       </c>
@@ -26616,7 +26546,7 @@
         </is>
       </c>
       <c r="B553" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C553" t="n">
         <v>61</v>
@@ -26655,7 +26585,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>179</v>
+        <v>17.9</v>
       </c>
       <c r="C554" t="n">
         <v>1150</v>
@@ -26709,9 +26639,7 @@
           <t>Samfundsjura</t>
         </is>
       </c>
-      <c r="B555" t="n">
-        <v>0</v>
-      </c>
+      <c r="B555" t="inlineStr"/>
       <c r="C555" t="n">
         <v>0</v>
       </c>
@@ -26749,7 +26677,7 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C556" t="n">
         <v>2440</v>
@@ -26790,7 +26718,7 @@
         </is>
       </c>
       <c r="B557" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C557" t="n">
         <v>488</v>
@@ -26845,7 +26773,7 @@
         </is>
       </c>
       <c r="B558" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C558" t="n">
         <v>40</v>
@@ -26927,7 +26855,7 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C560" t="n">
         <v>26</v>
@@ -26970,7 +26898,7 @@
         </is>
       </c>
       <c r="B561" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C561" t="n">
         <v>202</v>
@@ -27023,7 +26951,7 @@
         </is>
       </c>
       <c r="B562" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C562" t="n">
         <v>208</v>
@@ -27065,9 +26993,7 @@
           <t>Service management</t>
         </is>
       </c>
-      <c r="B563" t="n">
-        <v>0</v>
-      </c>
+      <c r="B563" t="inlineStr"/>
       <c r="C563" t="n">
         <v>0</v>
       </c>
@@ -27108,9 +27034,7 @@
           <t>Service- og oplevelsesøkonom</t>
         </is>
       </c>
-      <c r="B564" t="n">
-        <v>0</v>
-      </c>
+      <c r="B564" t="inlineStr"/>
       <c r="C564" t="n">
         <v>0</v>
       </c>
@@ -27152,7 +27076,7 @@
         </is>
       </c>
       <c r="B565" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C565" t="n">
         <v>46</v>
@@ -27193,7 +27117,7 @@
         </is>
       </c>
       <c r="B566" t="n">
-        <v>126</v>
+        <v>25.2</v>
       </c>
       <c r="C566" t="n">
         <v>524</v>
@@ -27244,7 +27168,7 @@
         </is>
       </c>
       <c r="B567" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C567" t="n">
         <v>2635</v>
@@ -27299,7 +27223,7 @@
         </is>
       </c>
       <c r="B568" t="n">
-        <v>138</v>
+        <v>34.5</v>
       </c>
       <c r="C568" t="n">
         <v>828</v>
@@ -27342,7 +27266,7 @@
         </is>
       </c>
       <c r="B569" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C569" t="n">
         <v>140</v>
@@ -27395,7 +27319,7 @@
         </is>
       </c>
       <c r="B570" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C570" t="n">
         <v>140</v>
@@ -27439,9 +27363,7 @@
           <t>Skibsteknik og marin konstruktion</t>
         </is>
       </c>
-      <c r="B571" t="n">
-        <v>0</v>
-      </c>
+      <c r="B571" t="inlineStr"/>
       <c r="C571" t="n">
         <v>0</v>
       </c>
@@ -27479,7 +27401,7 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>23</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="C572" t="n">
         <v>506</v>
@@ -27532,7 +27454,7 @@
         </is>
       </c>
       <c r="B573" t="n">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="C573" t="n">
         <v>122</v>
@@ -27575,7 +27497,7 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C574" t="n">
         <v>246</v>
@@ -27618,7 +27540,7 @@
         </is>
       </c>
       <c r="B575" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C575" t="n">
         <v>334</v>
@@ -27659,7 +27581,7 @@
         </is>
       </c>
       <c r="B576" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C576" t="n">
         <v>248</v>
@@ -27702,7 +27624,7 @@
         </is>
       </c>
       <c r="B577" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C577" t="n">
         <v>118</v>
@@ -27755,7 +27677,7 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C578" t="n">
         <v>2691</v>
@@ -27810,7 +27732,7 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>217</v>
+        <v>15.5</v>
       </c>
       <c r="C579" t="n">
         <v>12856</v>
@@ -27865,7 +27787,7 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>32</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="C580" t="n">
         <v>988</v>
@@ -27920,7 +27842,7 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C581" t="n">
         <v>272</v>
@@ -27975,7 +27897,7 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>74</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="C582" t="n">
         <v>2146</v>
@@ -28030,7 +27952,7 @@
         </is>
       </c>
       <c r="B583" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C583" t="n">
         <v>248</v>
@@ -28071,7 +27993,7 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>78</v>
+        <v>15.6</v>
       </c>
       <c r="C584" t="n">
         <v>1704</v>
@@ -28126,7 +28048,7 @@
         </is>
       </c>
       <c r="B585" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C585" t="n">
         <v>742</v>
@@ -28181,7 +28103,7 @@
         </is>
       </c>
       <c r="B586" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C586" t="n">
         <v>1493</v>
@@ -28224,7 +28146,7 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C587" t="n">
         <v>624</v>
@@ -28265,7 +28187,7 @@
         </is>
       </c>
       <c r="B588" t="n">
-        <v>163</v>
+        <v>14.81818181818182</v>
       </c>
       <c r="C588" t="n">
         <v>3029</v>
@@ -28320,7 +28242,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C589" t="n">
         <v>90</v>
@@ -28361,7 +28283,7 @@
         </is>
       </c>
       <c r="B590" t="n">
-        <v>113</v>
+        <v>22.6</v>
       </c>
       <c r="C590" t="n">
         <v>524</v>
@@ -28406,7 +28328,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C591" t="n">
         <v>118</v>
@@ -28445,7 +28367,7 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C592" t="n">
         <v>348</v>
@@ -28488,7 +28410,7 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C593" t="n">
         <v>916</v>
@@ -28543,7 +28465,7 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C594" t="n">
         <v>480</v>
@@ -28584,7 +28506,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C595" t="n">
         <v>230</v>
@@ -28639,7 +28561,7 @@
         </is>
       </c>
       <c r="B596" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C596" t="n">
         <v>246</v>
@@ -28694,7 +28616,7 @@
         </is>
       </c>
       <c r="B597" t="n">
-        <v>59</v>
+        <v>7.375</v>
       </c>
       <c r="C597" t="n">
         <v>7114</v>
@@ -28749,7 +28671,7 @@
         </is>
       </c>
       <c r="B598" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C598" t="n">
         <v>268</v>
@@ -28790,7 +28712,7 @@
         </is>
       </c>
       <c r="B599" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C599" t="n">
         <v>110</v>
@@ -28835,7 +28757,7 @@
         </is>
       </c>
       <c r="B600" t="n">
-        <v>34</v>
+        <v>8.5</v>
       </c>
       <c r="C600" t="n">
         <v>430</v>
@@ -28878,7 +28800,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C601" t="n">
         <v>304</v>
@@ -28931,7 +28853,7 @@
         </is>
       </c>
       <c r="B602" t="n">
-        <v>177</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="C602" t="n">
         <v>1366</v>
@@ -28972,7 +28894,7 @@
         </is>
       </c>
       <c r="B603" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C603" t="n">
         <v>894</v>
@@ -29027,7 +28949,7 @@
         </is>
       </c>
       <c r="B604" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C604" t="n">
         <v>786</v>
@@ -29072,7 +28994,7 @@
         </is>
       </c>
       <c r="B605" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C605" t="n">
         <v>302</v>
@@ -29127,7 +29049,7 @@
         </is>
       </c>
       <c r="B606" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C606" t="n">
         <v>182</v>
@@ -29170,7 +29092,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C607" t="n">
         <v>308</v>
@@ -29223,7 +29145,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C608" t="n">
         <v>52</v>
@@ -29265,9 +29187,7 @@
           <t>Sustainable Energy Systems</t>
         </is>
       </c>
-      <c r="B609" t="n">
-        <v>0</v>
-      </c>
+      <c r="B609" t="inlineStr"/>
       <c r="C609" t="n">
         <v>0</v>
       </c>
@@ -29308,9 +29228,7 @@
           <t>Sustainable Energy Technologies</t>
         </is>
       </c>
-      <c r="B610" t="n">
-        <v>0</v>
-      </c>
+      <c r="B610" t="inlineStr"/>
       <c r="C610" t="n">
         <v>0</v>
       </c>
@@ -29352,7 +29270,7 @@
         </is>
       </c>
       <c r="B611" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C611" t="n">
         <v>156</v>
@@ -29446,7 +29364,7 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C613" t="n">
         <v>118</v>
@@ -29488,9 +29406,7 @@
           <t>Sustainable Tourism and Hospitality Management</t>
         </is>
       </c>
-      <c r="B614" t="n">
-        <v>0</v>
-      </c>
+      <c r="B614" t="inlineStr"/>
       <c r="C614" t="n">
         <v>0</v>
       </c>
@@ -29528,7 +29444,7 @@
         </is>
       </c>
       <c r="B615" t="n">
-        <v>26</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="C615" t="n">
         <v>745</v>
@@ -29583,7 +29499,7 @@
         </is>
       </c>
       <c r="B616" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
       <c r="C616" t="n">
         <v>24414</v>
@@ -29638,7 +29554,7 @@
         </is>
       </c>
       <c r="B617" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C617" t="n">
         <v>134</v>
@@ -29681,7 +29597,7 @@
         </is>
       </c>
       <c r="B618" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C618" t="n">
         <v>914</v>
@@ -29736,7 +29652,7 @@
         </is>
       </c>
       <c r="B619" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C619" t="n">
         <v>294</v>
@@ -29781,7 +29697,7 @@
         </is>
       </c>
       <c r="B620" t="n">
-        <v>26</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="C620" t="n">
         <v>302</v>
@@ -29824,7 +29740,7 @@
         </is>
       </c>
       <c r="B621" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C621" t="n">
         <v>676</v>
@@ -29879,7 +29795,7 @@
         </is>
       </c>
       <c r="B622" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C622" t="n">
         <v>258</v>
@@ -29920,7 +29836,7 @@
         </is>
       </c>
       <c r="B623" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="C623" t="n">
         <v>78</v>
@@ -29962,9 +29878,7 @@
           <t>Teknisk biomedicin</t>
         </is>
       </c>
-      <c r="B624" t="n">
-        <v>0</v>
-      </c>
+      <c r="B624" t="inlineStr"/>
       <c r="C624" t="n">
         <v>0</v>
       </c>
@@ -30002,7 +29916,7 @@
         </is>
       </c>
       <c r="B625" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C625" t="n">
         <v>36</v>
@@ -30043,7 +29957,7 @@
         </is>
       </c>
       <c r="B626" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C626" t="n">
         <v>852</v>
@@ -30084,7 +29998,7 @@
         </is>
       </c>
       <c r="B627" t="n">
-        <v>77</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="C627" t="n">
         <v>430</v>
@@ -30125,7 +30039,7 @@
         </is>
       </c>
       <c r="B628" t="n">
-        <v>29</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="C628" t="n">
         <v>356</v>
@@ -30180,7 +30094,7 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>76</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="C629" t="n">
         <v>1428</v>
@@ -30235,7 +30149,7 @@
         </is>
       </c>
       <c r="B630" t="n">
-        <v>18</v>
+        <v>4.5</v>
       </c>
       <c r="C630" t="n">
         <v>42</v>
@@ -30278,7 +30192,7 @@
         </is>
       </c>
       <c r="B631" t="n">
-        <v>16</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="C631" t="n">
         <v>464</v>
@@ -30333,7 +30247,7 @@
         </is>
       </c>
       <c r="B632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C632" t="n">
         <v>166</v>
@@ -30378,7 +30292,7 @@
         </is>
       </c>
       <c r="B633" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C633" t="n">
         <v>218</v>
@@ -30423,7 +30337,7 @@
         </is>
       </c>
       <c r="B634" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C634" t="n">
         <v>288</v>
@@ -30478,7 +30392,7 @@
         </is>
       </c>
       <c r="B635" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C635" t="n">
         <v>450</v>
@@ -30533,7 +30447,7 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>123</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="C636" t="n">
         <v>599</v>
@@ -30587,9 +30501,7 @@
           <t>Uddannelsesantropologi og globalisering</t>
         </is>
       </c>
-      <c r="B637" t="n">
-        <v>0</v>
-      </c>
+      <c r="B637" t="inlineStr"/>
       <c r="C637" t="n">
         <v>0</v>
       </c>
@@ -30641,7 +30553,7 @@
         </is>
       </c>
       <c r="B638" t="n">
-        <v>87</v>
+        <v>14.5</v>
       </c>
       <c r="C638" t="n">
         <v>1646</v>
@@ -30694,7 +30606,7 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C639" t="n">
         <v>164</v>
@@ -30747,7 +30659,7 @@
         </is>
       </c>
       <c r="B640" t="n">
-        <v>33</v>
+        <v>16.5</v>
       </c>
       <c r="C640" t="n">
         <v>150</v>
@@ -30788,7 +30700,7 @@
         </is>
       </c>
       <c r="B641" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C641" t="n">
         <v>370</v>
@@ -30841,7 +30753,7 @@
         </is>
       </c>
       <c r="B642" t="n">
-        <v>85</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="C642" t="n">
         <v>308</v>
@@ -30884,7 +30796,7 @@
         </is>
       </c>
       <c r="B643" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C643" t="n">
         <v>96</v>
@@ -30927,7 +30839,7 @@
         </is>
       </c>
       <c r="B644" t="n">
-        <v>10</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="C644" t="n">
         <v>1415</v>
@@ -30981,9 +30893,7 @@
           <t>Vildtforvalter</t>
         </is>
       </c>
-      <c r="B645" t="n">
-        <v>0</v>
-      </c>
+      <c r="B645" t="inlineStr"/>
       <c r="C645" t="n">
         <v>0</v>
       </c>
@@ -31021,7 +30931,7 @@
         </is>
       </c>
       <c r="B646" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C646" t="n">
         <v>378</v>
@@ -31074,7 +30984,7 @@
         </is>
       </c>
       <c r="B647" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C647" t="n">
         <v>64</v>
@@ -31115,7 +31025,7 @@
         </is>
       </c>
       <c r="B648" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C648" t="n">
         <v>689</v>
@@ -31170,7 +31080,7 @@
         </is>
       </c>
       <c r="B649" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C649" t="n">
         <v>188</v>
@@ -31214,9 +31124,7 @@
           <t>Water and Environment</t>
         </is>
       </c>
-      <c r="B650" t="n">
-        <v>0</v>
-      </c>
+      <c r="B650" t="inlineStr"/>
       <c r="C650" t="n">
         <v>0</v>
       </c>
@@ -31254,7 +31162,7 @@
         </is>
       </c>
       <c r="B651" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C651" t="n">
         <v>136</v>
@@ -31307,7 +31215,7 @@
         </is>
       </c>
       <c r="B652" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C652" t="n">
         <v>538</v>
@@ -31362,7 +31270,7 @@
         </is>
       </c>
       <c r="B653" t="n">
-        <v>164</v>
+        <v>18.22222222222222</v>
       </c>
       <c r="C653" t="n">
         <v>1524</v>
@@ -31417,7 +31325,7 @@
         </is>
       </c>
       <c r="B654" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C654" t="n">
         <v>336</v>
@@ -31470,7 +31378,7 @@
         </is>
       </c>
       <c r="B655" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C655" t="n">
         <v>1448</v>
@@ -31523,7 +31431,7 @@
         </is>
       </c>
       <c r="B656" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="C656" t="n">
         <v>1868</v>
@@ -31566,7 +31474,7 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C657" t="n">
         <v>366</v>
@@ -31621,7 +31529,7 @@
         </is>
       </c>
       <c r="B658" t="n">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="C658" t="n">
         <v>7566</v>
@@ -31676,7 +31584,7 @@
         </is>
       </c>
       <c r="B659" t="n">
-        <v>123</v>
+        <v>24.6</v>
       </c>
       <c r="C659" t="n">
         <v>1702</v>
@@ -31729,7 +31637,7 @@
         </is>
       </c>
       <c r="B660" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="C660" t="n">
         <v>246</v>
